--- a/Incubation/Hardware/Time4CM4/Project Outputs for Time4CM4_PCIeCarrier/Time4CM4_PCIeCarrier.xlsx
+++ b/Incubation/Hardware/Time4CM4/Project Outputs for Time4CM4_PCIeCarrier/Time4CM4_PCIeCarrier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Incubation\Hardware\Time4CM4\Project Outputs for Time4CM4_PCIeCarrier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108D062A-8041-4846-B22D-2E116DAFEABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6136662-4441-421F-8FFB-04E311E3AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8DBFF6B-F9D2-4383-AE32-DB3936D9AE6D}"/>
   </bookViews>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B43"/>
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Incubation/Hardware/Time4CM4/Project Outputs for Time4CM4_PCIeCarrier/Time4CM4_PCIeCarrier.xlsx
+++ b/Incubation/Hardware/Time4CM4/Project Outputs for Time4CM4_PCIeCarrier/Time4CM4_PCIeCarrier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Incubation\Hardware\Time4CM4\Project Outputs for Time4CM4_PCIeCarrier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6136662-4441-421F-8FFB-04E311E3AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E06EF3A-3276-42BE-9C49-AAE01DB71819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8DBFF6B-F9D2-4383-AE32-DB3936D9AE6D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="332">
   <si>
     <t>Comment</t>
   </si>
@@ -1018,6 +1018,21 @@
   </si>
   <si>
     <t>QFN-68</t>
+  </si>
+  <si>
+    <t>DF40HC(3.0)-100DS-0.4V</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>DF40HC(3.0)-100DS-0.4V(51</t>
+  </si>
+  <si>
+    <t>C424649</t>
+  </si>
+  <si>
+    <t>100 pin receptacle</t>
   </si>
 </sst>
 </file>
@@ -1082,13 +1097,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1403,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BCAB19-64D5-4375-B9F7-3B26058828F6}">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B192" sqref="B191:B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4816,6 +4832,27 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D185" s="6">
+        <v>2</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G185" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
